--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -12,8 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
-    <sheet name="Config_Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="Config_ActionSkill" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,14 +26,495 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xu xu</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写类型：1000-9999正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+名称
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+图标
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+作用方
+参考枚举：ActorType
+为空表示全部</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的属性
+参考枚举：AttributeType
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+值的类型
+参考枚举：RateOrValueType
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的值
+填写类型：浮点数
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+选择目标的方式
+参考枚举：SelectionTargetType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+技能范围
+参考枚举：SkillRangeType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当 SkillRange为 Cross ，该字段不能为空
+当 SkillRange不为 Cross ，该字段应为空
+eg:1,1,2,2 (上下左右)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当 SkillRange为 Rect ，该字段不能为空
+当 SkillRange不为 Rect ，该字段应为空
+eg:2,3(长，宽)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:
+数量</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当 SkillRange为 Point ，该字段不能为空
+当 SkillRange不为 Point ，该字段应为空
+填写类型：[1,40]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+CD回合数
+填写类型：[0,30]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>EffectTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeRateOrVale</t>
+  </si>
+  <si>
+    <t>ChangeValue</t>
+  </si>
+  <si>
+    <t>SkillRange</t>
+  </si>
+  <si>
+    <t>Cross</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostRateOrValue</t>
+  </si>
+  <si>
+    <t>CostValue</t>
+  </si>
+  <si>
+    <t>TriggerBuffProbability0</t>
+  </si>
+  <si>
+    <t>TriggerBuffID0</t>
+  </si>
+  <si>
+    <t>TriggerBuffContinueRoundCount0</t>
+  </si>
+  <si>
+    <t>TriggerBuffProbability1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerBuffID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerBuffContinueRoundCount1</t>
+  </si>
+  <si>
+    <t>DamageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluctuation</t>
+  </si>
+  <si>
+    <t>DamageRate</t>
+  </si>
+  <si>
+    <t>RestoreHPeSource</t>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeAttribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -38,7 +522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +537,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +584,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -360,25 +887,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Config_ActionSkill" sheetId="1" r:id="rId1"/>
+    <sheet name="Config_ActiveSkill" sheetId="1" r:id="rId1"/>
+    <sheet name="Config_PassiveSkill" sheetId="2" r:id="rId2"/>
+    <sheet name="Config_TriggerSkill" sheetId="3" r:id="rId3"/>
+    <sheet name="Config_Buff" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -217,7 +220,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-值的类型
+改变值的类型
 参考枚举：RateOrValueType
 当ChangeAttribute字段为空，则该字段也应为空
 当ChangeAttribute字段不为空，则该字段不能为空</t>
@@ -417,6 +420,1111 @@
           <t xml:space="preserve">
 CD回合数
 填写类型：[0,30]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变值的类型
+参考枚举：RateOrValueType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+消耗率或消耗值
+消耗的东西根据英雄的职业而定
+填写类型：浮点数或整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发的Buff
+填写类型：（BuffID,概率，持续回合数）
+拥有多个使用|隔开
+eg:1001,0.5,3|1002,0.6,2
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+伤害类型
+参考枚举：DamageType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+波动值
+填写类型：大于0 浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+造成的伤害率
+填写类型：大于0浮点数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+回复生命 = 源（RestoreHPeSource） X 率（DamageRate）
+0：表示源为施放方的攻击
+1：表示源为作用方的血量
+填写类型：0,1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xu xu</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写类型：1000-9999正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+名称
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+图标
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+作用方
+参考枚举：ActorType
+为空表示全部</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的属性
+参考枚举：AttributeType
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变值的类型
+参考枚举：RateOrValueType
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的值
+填写类型：浮点数
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xu xu</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写类型：1000-9999正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+名称
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+图标
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+作用方
+参考枚举：ActorType
+为空表示全部</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的属性
+参考枚举：AttributeType
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变值的类型
+参考枚举：RateOrValueType
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的值
+填写类型：浮点数
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+通过属性触发
+参考枚举：TriggerType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发的值
+当TriggerType为0，则参考枚举：AttributeType
+当TriggerType为1，则参考枚举：TriggerFieldType
+当TriggerType为2，则参考枚举：BuffType
+当TriggerType为3，则参考枚举：FightActionType
+当TriggerType为4，则参考枚举：CountingType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发条件
+参考枚举：TriggerConditionType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+比较的对象
+参考枚举：ActorType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参考枚举：CompareRateOrVale
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+具体的值
+填写类型：大于等于0的浮点数
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发技能
+填写类型：技能ID
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发Buff
+填写类型：BuffID
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xu xu</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写类型：1000-9999正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+名称
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+图标
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+作用方
+参考枚举：ActorType
+为空表示全部</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的属性
+参考枚举：AttributeType
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变值的类型
+参考枚举：RateOrValueType
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的值
+填写类型：浮点数
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参考枚举：BuffType</t>
         </r>
       </text>
     </comment>
@@ -425,7 +1533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,26 +1581,6 @@
     <t>CostValue</t>
   </si>
   <si>
-    <t>TriggerBuffProbability0</t>
-  </si>
-  <si>
-    <t>TriggerBuffID0</t>
-  </si>
-  <si>
-    <t>TriggerBuffContinueRoundCount0</t>
-  </si>
-  <si>
-    <t>TriggerBuffProbability1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerBuffID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerBuffContinueRoundCount1</t>
-  </si>
-  <si>
     <t>DamageType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,13 +1604,46 @@
   <si>
     <t>SelectionTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerBuff</t>
+  </si>
+  <si>
+    <t>TriggerBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompareTarget</t>
+  </si>
+  <si>
+    <t>CompareRateOrVale</t>
+  </si>
+  <si>
+    <t>CompareValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerSkill</t>
+  </si>
+  <si>
+    <t>TriggerType</t>
+  </si>
+  <si>
+    <t>TriggerValue</t>
+  </si>
+  <si>
+    <t>BuffType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +1672,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -888,10 +2022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -908,19 +2042,14 @@
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -931,13 +2060,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -946,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -970,38 +2099,343 @@
         <v>12</v>
       </c>
       <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="12">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F1:F1048576">
+      <formula1>0</formula1>
+      <formula2>27</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576 O1:O1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SelectionTargetType里的值" sqref="I1:I1048576">
+      <formula1>0</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SkillRangeType里的值" sqref="J1:J1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[1,40]正整数" sqref="M1:M1048576">
+      <formula1>1</formula1>
+      <formula2>40</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,30]整数" sqref="N1:N1048576">
+      <formula1>0</formula1>
+      <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填DamageType里的值" sqref="R1:R1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于等于0的浮点数_x000a_" sqref="S1:S1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于0的浮点数" sqref="T1:T1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填0或1" sqref="U1:U1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F1:F1048576">
+      <formula1>0</formula1>
+      <formula2>27</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F1:F1048576">
+      <formula1>0</formula1>
+      <formula2>27</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576 M1:M1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerType里的值" sqref="I1:I1048576">
+      <formula1>0</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerConditionType里的值" sqref="K1:K1048576">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值_x000a_" sqref="L1:L1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填技能ID" sqref="O1:O1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffID" sqref="P1:P1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="根据具体枚举填值" sqref="J1:J1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F1:F1048576">
+      <formula1>0</formula1>
+      <formula2>27</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffType里的值" sqref="I1:I1048576">
+      <formula1>0</formula1>
+      <formula2>26</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiang\Documents\GitHub\NewPhoenix\Document\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\NewPhoenix\Document\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Config_ActiveSkill" sheetId="1" r:id="rId1"/>
     <sheet name="Config_PassiveSkill" sheetId="2" r:id="rId2"/>
     <sheet name="Config_TriggerSkill" sheetId="3" r:id="rId3"/>
     <sheet name="Config_Buff" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -166,7 +167,10 @@
           <t xml:space="preserve">
 作用方
 参考枚举：ActorType
-为空表示全部</t>
+为空表示全部
+友军：0
+敌军：1
+</t>
         </r>
       </text>
     </comment>
@@ -194,7 +198,31 @@
           <t xml:space="preserve">
 改变的属性
 参考枚举：AttributeType
-可以为空</t>
+可以为空
+    /// 力量 Power = 0,
+    /// 智力 IQ = 1,
+    /// 敏捷 Agile = 2,
+    /// 体质 Physique = 3,
+    /// 生命 HP = 4,
+    /// 攻击力 AP = 5,
+    /// 物理防御 PhysicsDEF = 6,
+    /// 法术防御  MagicDEf = 7,
+    /// 速度 Speed = 8,
+    /// 命中 Hit = 9,
+    /// 闪避 Dodge = 10,
+    /// 暴击 Critical = 11,
+    /// 抗暴 OpposeCritical = 12,
+    /// 暴击伤害 CriticalDamge = 13,
+    /// 暴击伤害减免CriticalDamgeCounteract = 14,
+    /// 治疗 Heal = 15,
+    /// 被治疗BeHealed = 16,
+    /// 格挡  Block = 17,
+    /// 破挡 Broken = 18,
+    /// 特殊属性
+    /// 七杀 怒气值
+    /// 贪狼 法力值
+    /// 破军 护盾值
+    SpecialAttribute = 19</t>
         </r>
       </text>
     </comment>
@@ -222,8 +250,9 @@
           <t xml:space="preserve">
 改变值的类型
 参考枚举：RateOrValueType
-当ChangeAttribute字段为空，则该字段也应为空
-当ChangeAttribute字段不为空，则该字段不能为空</t>
+率：0
+值：1
+</t>
         </r>
       </text>
     </comment>
@@ -1533,7 +1562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1637,6 +1666,12 @@
   </si>
   <si>
     <t>BuffType</t>
+  </si>
+  <si>
+    <t>霸王降临</t>
+  </si>
+  <si>
+    <t>对生命最低的敌方单位造成250%~300%的伤害，并晕眩1回合</t>
   </si>
 </sst>
 </file>
@@ -2022,17 +2057,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
@@ -2114,12 +2149,47 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10010</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.75</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="12">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
-      <formula1>1000</formula1>
-      <formula2>9999</formula2>
+      <formula1>10000</formula1>
+      <formula2>99999</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
       <formula1>0</formula1>
@@ -2173,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2244,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2366,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2439,4 +2509,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>10011</v>
+      </c>
+      <c r="C1">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\NewPhoenix\Document\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GitHub\NewPhoenix\Document\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Config_ActiveSkill" sheetId="1" r:id="rId1"/>
     <sheet name="Config_PassiveSkill" sheetId="2" r:id="rId2"/>
     <sheet name="Config_TriggerSkill" sheetId="3" r:id="rId3"/>
     <sheet name="Config_Buff" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Config_ActorSkill" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -1561,8 +1561,169 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xu xu</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写类型：1000-9999正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+名称
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+阶数
+填写类型：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>[0,9]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+技能
+填写格式：技能ID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>,技能ID
+eg:1001,1002</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1672,6 +1833,14 @@
   </si>
   <si>
     <t>对生命最低的敌方单位造成250%~300%的伤害，并晕眩1回合</t>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2059,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -2512,28 +2681,55 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>10011</v>
-      </c>
-      <c r="C1">
-        <v>1001</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,10]整数" sqref="D1:D1048576">
+      <formula1>0</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1">
+      <formula1>10000</formula1>
+      <formula2>99999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Config_ActiveSkill" sheetId="1" r:id="rId1"/>
@@ -293,6 +293,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+护盾类型
+参考枚举：ShieldType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -312,7 +337,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+选择对象需要参考的属性
+参考枚举：AttributeType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,89 +389,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-当 SkillRange为 Cross ，该字段不能为空
-当 SkillRange不为 Cross ，该字段应为空
-eg:1,1,2,2 (上下左右)
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+当 SkillRange为 Cross eg:1,1,2,2 (上,下,左,右)
+当 SkillRange为 Rect  eg:2,3(长,宽)
+当 SkillRange为 Point eg：1,40（随机值：下限,上限）
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-当 SkillRange为 Rect ，该字段不能为空
-当 SkillRange不为 Rect ，该字段应为空
-eg:2,3(长，宽)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:
-数量</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-当 SkillRange为 Point ，该字段不能为空
-当 SkillRange不为 Point ，该字段应为空
-填写类型：[1,40]</t>
         </r>
       </text>
     </comment>
@@ -864,6 +857,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+护盾类型
+参考枚举：ShieldType</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1115,12 +1133,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+护盾类型
+参考枚举：ShieldType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 通过属性触发
 参考枚举：TriggerType</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1174,7 +1217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1224,7 +1267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1553,6 +1596,31 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+护盾类型
+参考枚举：ShieldType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 参考枚举：BuffType</t>
         </r>
       </text>
@@ -1723,7 +1791,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1749,18 +1817,6 @@
     <t>SkillRange</t>
   </si>
   <si>
-    <t>Cross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1840,6 +1896,16 @@
   </si>
   <si>
     <t>SkillIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldType</t>
+  </si>
+  <si>
+    <t>SelectionTargetRefrenceAttribute</t>
+  </si>
+  <si>
+    <t>RangeValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2228,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2242,8 +2308,10 @@
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
@@ -2264,13 +2332,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2279,43 +2347,43 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
@@ -2323,10 +2391,10 @@
         <v>10010</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2340,13 +2408,13 @@
       <c r="H2">
         <v>2.75</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
@@ -2355,53 +2423,54 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="12">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
+  <dataValidations count="13">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>10000</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F1:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576 K2:K1048576">
       <formula1>0</formula1>
       <formula2>27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576 O1:O1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="O2:O1048576 G2:G1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SelectionTargetType里的值" sqref="I1:I1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SelectionTargetType里的值" sqref="J2:J1048576">
       <formula1>0</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SkillRangeType里的值" sqref="J1:J1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SkillRangeType里的值" sqref="L2:L1048576">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[1,40]正整数" sqref="M1:M1048576">
-      <formula1>1</formula1>
-      <formula2>40</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,30]整数" sqref="N1:N1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,30]整数" sqref="N2:N1048576">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填DamageType里的值" sqref="R1:R1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填DamageType里的值" sqref="R2:R1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于等于0的浮点数_x000a_" sqref="S1:S1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于0的浮点数" sqref="T1:T1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填0或1" sqref="U1:U1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于等于0的浮点数_x000a_" sqref="S2:S1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于0的浮点数" sqref="T2:T1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填0或1" sqref="U2:U1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="K1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2410,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2426,9 +2495,10 @@
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2439,39 +2509,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576">
+  <dataValidations count="5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G2:G1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F1:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
       <formula1>0</formula1>
       <formula2>27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2481,132 +2558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="10">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
-      <formula1>1000</formula1>
-      <formula2>9999</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F1:F1048576">
-      <formula1>0</formula1>
-      <formula2>27</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576 M1:M1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerType里的值" sqref="I1:I1048576">
-      <formula1>0</formula1>
-      <formula2>4</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerConditionType里的值" sqref="K1:K1048576">
-      <formula1>0</formula1>
-      <formula2>3</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值_x000a_" sqref="L1:L1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填技能ID" sqref="O1:O1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffID" sqref="P1:P1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="根据具体枚举填值" sqref="J1:J1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2619,10 +2574,17 @@
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2633,13 +2595,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2648,31 +2610,163 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1:A1048576">
+  <dataValidations count="11">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E1:E1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F1:F1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
       <formula1>0</formula1>
       <formula2>27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="N2:N1048576 G2:G1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffType里的值" sqref="I1:I1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerType里的值" sqref="J2:J1048576">
+      <formula1>0</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerConditionType里的值" sqref="L2:L1048576">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值_x000a_" sqref="M2:M1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填技能ID" sqref="P2:P1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffID" sqref="Q2:Q1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="根据具体枚举填值" sqref="K2:K1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
+      <formula1>0</formula1>
+      <formula2>27</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G2:G1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffType里的值" sqref="J2:J1048576">
       <formula1>0</formula1>
       <formula2>26</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2684,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2707,22 +2801,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,10]整数" sqref="D1:D1048576">
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,10]整数" sqref="D2:D1048576">
       <formula1>0</formula1>
       <formula2>9</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A1">
-      <formula1>10000</formula1>
-      <formula2>99999</formula2>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>

--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Config_ActiveSkill" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Config_TriggerSkill" sheetId="3" r:id="rId3"/>
     <sheet name="Config_Buff" sheetId="4" r:id="rId4"/>
     <sheet name="Config_ActorSkill" sheetId="5" r:id="rId5"/>
+    <sheet name="Config_WeatherSkill" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -1790,8 +1791,289 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>xu xu</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填写类型：1000-9999正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+名称
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+描述
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+图标
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+作用方
+参考枚举：ActorType
+为空表示全部</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的属性
+参考枚举：AttributeType
+可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变值的类型
+参考枚举：RateOrValueType
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+改变的值
+填写类型：浮点数
+当ChangeAttribute字段为空，则该字段也应为空
+当ChangeAttribute字段不为空，则该字段不能为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+护盾类型
+参考枚举：ShieldType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+天气类型
+参考枚举:WeatherType</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1906,6 +2188,10 @@
   </si>
   <si>
     <t>RangeValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weather</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2294,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -2692,7 +2978,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2822,4 +3108,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
+      <formula1>0</formula1>
+      <formula2>27</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G2:G1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="J2:J1048576">
+      <formula1>0</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="J1"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Config_ActiveSkill" sheetId="1" r:id="rId1"/>
@@ -1771,6 +1771,31 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+技能类型
+参考枚举：SkillType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 技能
 填写格式：技能ID</t>
         </r>
@@ -1912,145 +1937,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-作用方
-参考枚举：ActorType
-为空表示全部</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-改变的属性
-参考枚举：AttributeType
-可以为空</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-改变值的类型
-参考枚举：RateOrValueType
-当ChangeAttribute字段为空，则该字段也应为空
-当ChangeAttribute字段不为空，则该字段不能为空</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-改变的值
-填写类型：浮点数
-当ChangeAttribute字段为空，则该字段也应为空
-当ChangeAttribute字段不为空，则该字段不能为空</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-护盾类型
-参考枚举：ShieldType</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
           <t>xu xu:</t>
@@ -2073,7 +1959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2192,6 +2078,10 @@
   </si>
   <si>
     <t>Weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2580,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3062,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3073,10 +2963,12 @@
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3090,12 +2982,15 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,10]整数" sqref="D2:D1048576">
       <formula1>0</formula1>
       <formula2>9</formula2>
@@ -3103,6 +2998,10 @@
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="参考枚举 SkillType " sqref="E1:E1048576 E1">
+      <formula1>0</formula1>
+      <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3112,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3124,15 +3023,10 @@
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3146,52 +3040,21 @@
         <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
-      <formula1>0</formula1>
-      <formula2>27</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G2:G1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="J2:J1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="E2:E1048576">
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="E1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -167,11 +167,18 @@
           </rPr>
           <t xml:space="preserve">
 作用方
-参考枚举：ActorType
-为空表示全部
-友军：0
-敌军：1
-</t>
+    /// &lt;summary&gt;
+    /// 敌方
+    /// &lt;/summary&gt;
+    Enemy = 0,
+    /// &lt;summary&gt;
+    /// 友方
+    /// &lt;/summary&gt;
+    Friend = 1,
+    /// &lt;summary&gt;
+    /// 自己
+    /// &lt;/summary&gt;
+    Self = 2</t>
         </r>
       </text>
     </comment>
@@ -307,7 +314,14 @@
           </rPr>
           <t xml:space="preserve">
 护盾类型
-参考枚举：ShieldType</t>
+    /// &lt;summary&gt;
+    /// 先使用护盾再使用生命
+    /// &lt;/summary&gt;
+    BeforeHP = 0,
+    /// &lt;summary&gt;
+    /// 先使用生命再使用护盾
+    /// &lt;/summary&gt;
+    AfterHP = 1,</t>
         </r>
       </text>
     </comment>
@@ -334,7 +348,45 @@
           </rPr>
           <t xml:space="preserve">
 选择目标的方式
-参考枚举：SelectionTargetType</t>
+    /// &lt;summary&gt;
+    /// 就近（左下）
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    Near = 0,
+    /// &lt;summary&gt;
+    /// 最远
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    Far = 1,
+    /// &lt;summary&gt;
+    /// 某项属性最小
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    MinAttribute = 2,
+    /// &lt;summary&gt;
+    /// 某项属性最大
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    MaxAttribute = 3,
+    /// &lt;summary&gt;
+    /// 最多目标
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    Max = 4,
+    /// &lt;summary&gt;
+    /// 对面
+    /// SkillRangeType: 1
+    /// &lt;/summary&gt;
+    Opposite = 5,
+    /// &lt;summary&gt;
+    /// 随机
+    /// &lt;/summary&gt;
+    Random = 6,
+    /// &lt;summary&gt;
+    /// 根据某项属性筛选
+    /// 例如：国籍，职业等
+    /// &lt;/summary&gt;
+    Attribute = 7,</t>
         </r>
       </text>
     </comment>
@@ -359,7 +411,128 @@
           </rPr>
           <t xml:space="preserve">
 选择对象需要参考的属性
-参考枚举：AttributeType</t>
+参考枚举：AttributeType
+    #region 1级属性
+    /// &lt;summary&gt;
+    /// 力量
+    /// &lt;/summary&gt;
+    Power = 0,
+    /// &lt;summary&gt;
+    /// 智力
+    /// &lt;/summary&gt;
+    IQ = 1,
+    /// &lt;summary&gt;
+    /// 敏捷
+    /// &lt;/summary&gt;
+    Agile = 2,
+    /// &lt;summary&gt;
+    /// 体质
+    /// &lt;/summary&gt;
+    Physique = 3,
+    #endregion
+    #region 2级属性
+    /// &lt;summary&gt;
+    /// 生命值
+    /// &lt;/summary&gt;
+    HP = 4,
+    /// &lt;summary&gt;
+    /// 攻击力
+    /// &lt;/summary&gt;
+    AP = 5,
+    /// &lt;summary&gt;
+    /// 物理防御
+    /// &lt;/summary&gt;
+    PhysicsDEF = 6,
+    /// &lt;summary&gt;
+    /// 法术防御
+    /// &lt;/summary&gt;
+    MagicDEf = 7,
+    /// &lt;summary&gt;
+    /// 速度
+    /// &lt;/summary&gt;
+    Speed = 8,
+    /// &lt;summary&gt;
+    /// 命中
+    /// &lt;/summary&gt;
+    Hit = 9,
+    /// &lt;summary&gt;
+    /// 闪避
+    /// &lt;/summary&gt;
+    Dodge = 10,
+    /// &lt;summary&gt;
+    /// 暴击
+    /// &lt;/summary&gt;
+    Critical = 11,
+    /// &lt;summary&gt;
+    /// 抗暴
+    /// &lt;/summary&gt;
+    OpposeCritical = 12,
+    /// &lt;summary&gt;
+    /// 暴击伤害
+    /// &lt;/summary&gt;
+    CriticalDamge = 13,
+    /// &lt;summary&gt;
+    /// 暴击伤害减免
+    /// &lt;/summary&gt;
+    CriticalDamgeCounteract = 14,
+    /// &lt;summary&gt;
+    /// 治疗
+    /// &lt;/summary&gt;
+    Heal = 15,
+    /// &lt;summary&gt;
+    /// 被治疗
+    /// &lt;/summary&gt;
+    BeHealed = 16,
+    /// &lt;summary&gt;
+    /// 格挡
+    /// &lt;/summary&gt;
+    Block = 17,
+    /// &lt;summary&gt;
+    /// 破挡
+    /// &lt;/summary&gt;
+    Broken = 18,
+    /// &lt;summary&gt;
+    /// 特殊属性
+    /// 七杀 怒气值
+    /// 贪狼 法力值
+    /// 破军 护盾值
+    /// &lt;/summary&gt;
+    SpecialAttribute = 19,
+    #endregion
+    #region 隐藏属性
+    /// &lt;summary&gt;
+    /// 最终伤害值
+    /// &lt;/summary&gt;
+    FinalDamage = 20,
+    /// &lt;summary&gt;
+    /// 最终减免值
+    /// &lt;/summary&gt;
+    FinalDamgeCounteract = 21,
+    /// &lt;summary&gt;
+    /// 最终伤害加成
+    /// &lt;/summary&gt;
+    FinalDamageAddition = 22,
+    /// &lt;summary&gt;
+    /// 最终减免加成
+    /// &lt;/summary&gt;
+    FinalDamageCounteractAddition =  23,
+    /// &lt;summary&gt;
+    /// 物理伤害加成
+    /// &lt;/summary&gt;
+    PhysicsDamageAddition = 24,
+    /// &lt;summary&gt;
+    /// 物理减免加成
+    /// &lt;/summary&gt;
+    PhysicsDamageCounteractAddition = 25,
+    /// &lt;summary&gt;
+    /// 法术伤害加成
+    /// &lt;/summary&gt;
+    MagicDamageAddition = 26,
+    /// &lt;summary&gt;
+    /// 法术减免加成
+    /// &lt;/summary&gt;
+    MagicDamageCounteractAddition = 27,
+    #endregion</t>
         </r>
       </text>
     </comment>
@@ -386,7 +559,19 @@
           </rPr>
           <t xml:space="preserve">
 技能范围
-参考枚举：SkillRangeType</t>
+参考枚举：SkillRangeType
+/// &lt;summary&gt;
+    /// 十字
+    /// 填表格式 1,2,2,3
+    /// 单个目标填0
+    /// 全体目标填5
+    /// &lt;/summary&gt;
+    Cross = 0,
+    /// &lt;summary&gt;
+    /// 矩形区域
+    /// 填表格式 2,3
+    /// &lt;/summary&gt;
+    Rect = 1,</t>
         </r>
       </text>
     </comment>
@@ -414,7 +599,6 @@
           <t xml:space="preserve">
 当 SkillRange为 Cross eg:1,1,2,2 (上,下,左,右)
 当 SkillRange为 Rect  eg:2,3(长,宽)
-当 SkillRange为 Point eg：1,40（随机值：下限,上限）
 </t>
         </r>
       </text>
@@ -467,7 +651,15 @@
           </rPr>
           <t xml:space="preserve">
 改变值的类型
-参考枚举：RateOrValueType</t>
+参考枚举：RateOrValueType
+    /// &lt;summary&gt;
+    /// 率
+    /// &lt;/summary&gt;
+    Rate = 0,
+    /// &lt;summary&gt;
+    /// 值
+    /// &lt;/summary&gt;
+    Value = 1,</t>
         </r>
       </text>
     </comment>
@@ -546,7 +738,15 @@
           </rPr>
           <t xml:space="preserve">
 伤害类型
-参考枚举：DamageType</t>
+参考枚举：DamageType
+    /// &lt;summary&gt;
+    /// 物理伤害
+    /// &lt;/summary&gt;
+    Physics = 0,
+    /// &lt;summary&gt;
+    /// 法术伤害
+    /// &lt;/summary&gt;
+    Magic = 1,</t>
         </r>
       </text>
     </comment>
@@ -624,6 +824,170 @@
 0：表示源为施放方的攻击
 1：表示源为作用方的血量
 填写类型：0,1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+计算是是否包含空格子
+填写类型bool</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+选择目标的数量
+填写类型[1,20]整数
+当作用对象为自己的时候，该字段可以为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+播动画次数
+填写类型正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+是否移动到目标
+    /// &lt;summary&gt;
+    /// 站在原地
+    /// 不需要移动
+    /// &lt;/summary&gt;
+    DontMove = 0,
+    /// &lt;summary&gt;
+    /// 只移动一次
+    /// 移动到整体目标
+    /// &lt;/summary&gt;
+    MoveToWhole = 1,
+    /// &lt;summary&gt;
+    /// 移动多次
+    /// 移动到每个目标
+    /// &lt;/summary&gt;
+    MoveToEveryOne = 2,
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xu xu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+轴点
+当MoveToTarget为DontMove时 该字段必须为空；
+否则，不能为空。
+    /// &lt;summary&gt;
+    /// 中心
+    /// &lt;/summary&gt;
+    Center = 0,
+    /// &lt;summary&gt;
+    /// 前
+    /// &lt;/summary&gt;
+    Forward = 1,
+    /// &lt;summary&gt;
+    /// 后
+    /// &lt;/summary&gt;
+    Back  =2,</t>
         </r>
       </text>
     </comment>
@@ -767,8 +1131,18 @@
           </rPr>
           <t xml:space="preserve">
 作用方
-参考枚举：ActorType
-为空表示全部</t>
+    /// &lt;summary&gt;
+    /// 敌方
+    /// &lt;/summary&gt;
+    Enemy = 0,
+    /// &lt;summary&gt;
+    /// 友方
+    /// &lt;/summary&gt;
+    Friend = 1,
+    /// &lt;summary&gt;
+    /// 自己
+    /// &lt;/summary&gt;
+    Self = 2</t>
         </r>
       </text>
     </comment>
@@ -796,7 +1170,31 @@
           <t xml:space="preserve">
 改变的属性
 参考枚举：AttributeType
-可以为空</t>
+可以为空
+    /// 力量 Power = 0,
+    /// 智力 IQ = 1,
+    /// 敏捷 Agile = 2,
+    /// 体质 Physique = 3,
+    /// 生命 HP = 4,
+    /// 攻击力 AP = 5,
+    /// 物理防御 PhysicsDEF = 6,
+    /// 法术防御  MagicDEf = 7,
+    /// 速度 Speed = 8,
+    /// 命中 Hit = 9,
+    /// 闪避 Dodge = 10,
+    /// 暴击 Critical = 11,
+    /// 抗暴 OpposeCritical = 12,
+    /// 暴击伤害 CriticalDamge = 13,
+    /// 暴击伤害减免CriticalDamgeCounteract = 14,
+    /// 治疗 Heal = 15,
+    /// 被治疗BeHealed = 16,
+    /// 格挡  Block = 17,
+    /// 破挡 Broken = 18,
+    /// 特殊属性
+    /// 七杀 怒气值
+    /// 贪狼 法力值
+    /// 破军 护盾值
+    SpecialAttribute = 19</t>
         </r>
       </text>
     </comment>
@@ -824,8 +1222,9 @@
           <t xml:space="preserve">
 改变值的类型
 参考枚举：RateOrValueType
-当ChangeAttribute字段为空，则该字段也应为空
-当ChangeAttribute字段不为空，则该字段不能为空</t>
+率：0
+值：1
+</t>
         </r>
       </text>
     </comment>
@@ -879,7 +1278,14 @@
           </rPr>
           <t xml:space="preserve">
 护盾类型
-参考枚举：ShieldType</t>
+    /// &lt;summary&gt;
+    /// 先使用护盾再使用生命
+    /// &lt;/summary&gt;
+    BeforeHP = 0,
+    /// &lt;summary&gt;
+    /// 先使用生命再使用护盾
+    /// &lt;/summary&gt;
+    AfterHP = 1,</t>
         </r>
       </text>
     </comment>
@@ -1023,8 +1429,18 @@
           </rPr>
           <t xml:space="preserve">
 作用方
-参考枚举：ActorType
-为空表示全部</t>
+    /// &lt;summary&gt;
+    /// 敌方
+    /// &lt;/summary&gt;
+    Enemy = 0,
+    /// &lt;summary&gt;
+    /// 友方
+    /// &lt;/summary&gt;
+    Friend = 1,
+    /// &lt;summary&gt;
+    /// 自己
+    /// &lt;/summary&gt;
+    Self = 2</t>
         </r>
       </text>
     </comment>
@@ -1052,7 +1468,31 @@
           <t xml:space="preserve">
 改变的属性
 参考枚举：AttributeType
-可以为空</t>
+可以为空
+    /// 力量 Power = 0,
+    /// 智力 IQ = 1,
+    /// 敏捷 Agile = 2,
+    /// 体质 Physique = 3,
+    /// 生命 HP = 4,
+    /// 攻击力 AP = 5,
+    /// 物理防御 PhysicsDEF = 6,
+    /// 法术防御  MagicDEf = 7,
+    /// 速度 Speed = 8,
+    /// 命中 Hit = 9,
+    /// 闪避 Dodge = 10,
+    /// 暴击 Critical = 11,
+    /// 抗暴 OpposeCritical = 12,
+    /// 暴击伤害 CriticalDamge = 13,
+    /// 暴击伤害减免CriticalDamgeCounteract = 14,
+    /// 治疗 Heal = 15,
+    /// 被治疗BeHealed = 16,
+    /// 格挡  Block = 17,
+    /// 破挡 Broken = 18,
+    /// 特殊属性
+    /// 七杀 怒气值
+    /// 贪狼 法力值
+    /// 破军 护盾值
+    SpecialAttribute = 19</t>
         </r>
       </text>
     </comment>
@@ -1080,8 +1520,9 @@
           <t xml:space="preserve">
 改变值的类型
 参考枚举：RateOrValueType
-当ChangeAttribute字段为空，则该字段也应为空
-当ChangeAttribute字段不为空，则该字段不能为空</t>
+率：0
+值：1
+</t>
         </r>
       </text>
     </comment>
@@ -1135,7 +1576,14 @@
           </rPr>
           <t xml:space="preserve">
 护盾类型
-参考枚举：ShieldType</t>
+    /// &lt;summary&gt;
+    /// 先使用护盾再使用生命
+    /// &lt;/summary&gt;
+    BeforeHP = 0,
+    /// &lt;summary&gt;
+    /// 先使用生命再使用护盾
+    /// &lt;/summary&gt;
+    AfterHP = 1,</t>
         </r>
       </text>
     </comment>
@@ -1160,7 +1608,32 @@
           </rPr>
           <t xml:space="preserve">
 通过属性触发
-参考枚举：TriggerType</t>
+参考枚举：TriggerType
+    /// &lt;summary&gt;
+    /// 通过属性触发
+    /// 参考枚举：AttributeType
+    /// &lt;/summary&gt;
+    Attribute = 0,
+    /// &lt;summary&gt;
+    /// 通过字段触发
+    /// 参考枚举：TriggerFieldType
+    /// &lt;/summary&gt;
+    Field = 1,
+    /// &lt;summary&gt;
+    /// 通过Buff触发
+    /// 参考枚举：BuffType
+    /// &lt;/summary&gt;
+    Buff = 2,
+    /// &lt;summary&gt;
+    /// 通过战斗中的行为触发
+    /// 参考枚举：FightActionType
+    /// &lt;/summary&gt;
+    FightAction = 3,
+    /// &lt;summary&gt;
+    /// 通过计数触发
+    /// 参考枚举：CountingType
+    /// &lt;/summary&gt;
+    Counting = 4</t>
         </r>
       </text>
     </comment>
@@ -1214,7 +1687,24 @@
           </rPr>
           <t xml:space="preserve">
 触发条件
-参考枚举：TriggerConditionType</t>
+参考枚举：TriggerConditionType
+   /// &lt;summary&gt;
+    /// 大于
+    /// &lt;/summary&gt;
+    Greater = 0,
+    /// &lt;summary&gt;
+    /// 小于
+    /// &lt;/summary&gt;
+    Less = 1,
+    /// &lt;summary&gt;
+    /// 等于
+    /// &lt;/summary&gt;
+    Equal = 2,
+    /// &lt;summary&gt;
+    /// 改变 
+    /// 改变的值可正可负
+    /// &lt;/summary&gt;
+    Change = 3,</t>
         </r>
       </text>
     </comment>
@@ -1239,7 +1729,8 @@
           </rPr>
           <t xml:space="preserve">
 比较的对象
-参考枚举：ActorType</t>
+和自己比较：0
+和目标比较：1</t>
         </r>
       </text>
     </comment>
@@ -1263,8 +1754,15 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-参考枚举：CompareRateOrVale
-可以为空</t>
+可以为空
+/// &lt;summary&gt;
+    /// 率
+    /// &lt;/summary&gt;
+    Rate = 0,
+    /// &lt;summary&gt;
+    /// 值
+    /// &lt;/summary&gt;
+    Value = 1,</t>
         </r>
       </text>
     </comment>
@@ -1486,8 +1984,18 @@
           </rPr>
           <t xml:space="preserve">
 作用方
-参考枚举：ActorType
-为空表示全部</t>
+    /// &lt;summary&gt;
+    /// 敌方
+    /// &lt;/summary&gt;
+    Enemy = 0,
+    /// &lt;summary&gt;
+    /// 友方
+    /// &lt;/summary&gt;
+    Friend = 1,
+    /// &lt;summary&gt;
+    /// 自己
+    /// &lt;/summary&gt;
+    Self = 2</t>
         </r>
       </text>
     </comment>
@@ -1515,7 +2023,31 @@
           <t xml:space="preserve">
 改变的属性
 参考枚举：AttributeType
-可以为空</t>
+可以为空
+    /// 力量 Power = 0,
+    /// 智力 IQ = 1,
+    /// 敏捷 Agile = 2,
+    /// 体质 Physique = 3,
+    /// 生命 HP = 4,
+    /// 攻击力 AP = 5,
+    /// 物理防御 PhysicsDEF = 6,
+    /// 法术防御  MagicDEf = 7,
+    /// 速度 Speed = 8,
+    /// 命中 Hit = 9,
+    /// 闪避 Dodge = 10,
+    /// 暴击 Critical = 11,
+    /// 抗暴 OpposeCritical = 12,
+    /// 暴击伤害 CriticalDamge = 13,
+    /// 暴击伤害减免CriticalDamgeCounteract = 14,
+    /// 治疗 Heal = 15,
+    /// 被治疗BeHealed = 16,
+    /// 格挡  Block = 17,
+    /// 破挡 Broken = 18,
+    /// 特殊属性
+    /// 七杀 怒气值
+    /// 贪狼 法力值
+    /// 破军 护盾值
+    SpecialAttribute = 19</t>
         </r>
       </text>
     </comment>
@@ -1543,8 +2075,9 @@
           <t xml:space="preserve">
 改变值的类型
 参考枚举：RateOrValueType
-当ChangeAttribute字段为空，则该字段也应为空
-当ChangeAttribute字段不为空，则该字段不能为空</t>
+率：0
+值：1
+</t>
         </r>
       </text>
     </comment>
@@ -1598,7 +2131,14 @@
           </rPr>
           <t xml:space="preserve">
 护盾类型
-参考枚举：ShieldType</t>
+    /// &lt;summary&gt;
+    /// 先使用护盾再使用生命
+    /// &lt;/summary&gt;
+    BeforeHP = 0,
+    /// &lt;summary&gt;
+    /// 先使用生命再使用护盾
+    /// &lt;/summary&gt;
+    AfterHP = 1,</t>
         </r>
       </text>
     </comment>
@@ -1622,7 +2162,115 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-参考枚举：BuffType</t>
+参考枚举：BuffType
+    /// &lt;summary&gt;
+    ///  灼烧
+    /// &lt;/summary&gt;
+    ZhuoShao = 0,
+    /// &lt;summary&gt;
+    ///  中毒
+    /// &lt;/summary&gt;
+    ZhongDu = 1,
+    /// &lt;summary&gt;
+    ///  流血
+    /// &lt;/summary&gt;
+    LiuXue = 2,
+    /// &lt;summary&gt;
+    ///  撕裂
+    /// &lt;/summary&gt;
+    SiLie = 3,
+    /// &lt;summary&gt;
+    ///  眩晕
+    /// &lt;/summary&gt;
+    XuanYun = 4,
+    /// &lt;summary&gt;
+    ///  缴械
+    /// &lt;/summary&gt;
+    JiaoXie = 5,
+    /// &lt;summary&gt;
+    ///  封技
+    /// &lt;/summary&gt;
+    FengJi = 6,
+    /// &lt;summary&gt;
+    ///  混乱
+    /// &lt;/summary&gt;
+    HunLuan = 7,
+    /// &lt;summary&gt;
+    ///  易损
+    /// &lt;/summary&gt;
+    YiSun = 8,
+    /// &lt;summary&gt;
+    ///  连环
+    /// &lt;/summary&gt;
+    LianHuan = 9,
+    /// &lt;summary&gt;
+    ///  麻痹
+    /// &lt;/summary&gt;
+    MaBi = 10,
+    /// &lt;summary&gt;
+    ///  致盲
+    /// &lt;/summary&gt;
+    ZhiMang = 11,
+    /// &lt;summary&gt;
+    ///  虚弱
+    /// &lt;/summary&gt;
+    XuRuo = 12,
+    /// &lt;summary&gt;
+    ///  破甲
+    /// &lt;/summary&gt;
+    PoJia = 13,
+    /// &lt;summary&gt;
+    ///  感电
+    /// &lt;/summary&gt;
+    GanDian = 14,
+    /// &lt;summary&gt;
+    ///  迟缓
+    /// &lt;/summary&gt;
+    ChiHuan = 15,
+    /// &lt;summary&gt;
+    ///  封疗
+    /// &lt;/summary&gt;
+    FengLiao = 16,
+    /// &lt;summary&gt;
+    ///  断筋
+    /// &lt;/summary&gt;
+    DuanJin = 17,
+    /// &lt;summary&gt;
+    ///  弱点
+    /// &lt;/summary&gt;
+    RuoDian = 18,
+    /// &lt;summary&gt;
+    ///  破绽
+    /// &lt;/summary&gt;
+    PoZhan = 19,
+    /// &lt;summary&gt;
+    ///  封怒
+    /// &lt;/summary&gt;
+    FengNu = 20,
+    /// &lt;summary&gt;
+    ///  绝气
+    /// &lt;/summary&gt;
+    JueQi = 21,
+    /// &lt;summary&gt;
+    ///  藏兵
+    /// &lt;/summary&gt;
+    CangBing = 22,
+    /// &lt;summary&gt;
+    ///  恫吓
+    /// &lt;/summary&gt;
+    DongHe = 23,
+    /// &lt;summary&gt;
+    ///  缠怨
+    /// &lt;/summary&gt;
+    ChanYuan = 24,
+    /// &lt;summary&gt;
+    ///  离间
+    /// &lt;/summary&gt;
+    LiJian = 25,
+    /// &lt;summary&gt;
+    ///  激昂
+    /// &lt;/summary&gt;
+    JiAng = 26,</t>
         </r>
       </text>
     </comment>
@@ -1950,7 +2598,27 @@
           </rPr>
           <t xml:space="preserve">
 天气类型
-参考枚举:WeatherType</t>
+参考枚举:WeatherType
+    /// &lt;summary&gt;
+    /// 默认晴天？
+    /// &lt;/summary&gt;
+    Default = 0,
+    /// &lt;summary&gt;
+    /// 大风
+    /// &lt;/summary&gt;
+    Wind = 1,
+    /// &lt;summary&gt;
+    /// 雷电
+    /// &lt;/summary&gt;
+    Lightning = 2,
+    /// &lt;summary&gt;
+    /// 沙暴
+    /// &lt;/summary&gt;
+    Sandstorm = 3,
+    /// &lt;summary&gt;
+    /// 雾霾
+    /// &lt;/summary&gt;
+    Haze = 4,</t>
         </r>
       </text>
     </comment>
@@ -1959,7 +2627,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2082,6 +2750,26 @@
   </si>
   <si>
     <t>SkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncludeEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectionCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveToTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveToPivot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2468,10 +3156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2495,9 +3183,13 @@
     <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2561,8 +3253,23 @@
       <c r="U1" t="s">
         <v>13</v>
       </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10010</v>
       </c>
@@ -2599,15 +3306,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="13">
+  <dataValidations count="16">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>10000</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576 K2:K1048576">
       <formula1>0</formula1>
       <formula2>27</formula2>
@@ -2647,9 +3350,26 @@
       <formula2>1</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="K1"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵呵呵呵" error="只能填bool值，_x000a_false:0_x000a_true:1" sqref="V1:V1048576 V1">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E2:E1048576 Y1:Y1048576 Z2:Z1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵呵呵" error="填写类型整数[1,20]" sqref="W1:W1048576">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写正整数" sqref="X1:X1048576">
+      <formula1>1</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2658,7 +3378,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2706,7 +3426,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G2:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2714,17 +3434,17 @@
       <formula1>0</formula1>
       <formula2>27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I1:I1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2736,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2820,15 +3540,11 @@
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
       <formula1>0</formula1>
       <formula2>27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="N2:N1048576 G2:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="N2:N1048576 G1:G1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2853,9 +3569,13 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="根据具体枚举填值" sqref="K2:K1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I1:I1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2868,7 +3588,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2924,15 +3644,11 @@
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值" sqref="E2:E1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
       <formula1>0</formula1>
       <formula2>27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G2:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -2940,9 +3656,13 @@
       <formula1>0</formula1>
       <formula2>26</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I1:I1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E1:E1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2955,7 +3675,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3014,7 +3734,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Document/Config/Config_Skill.xlsx
+++ b/Document/Config/Config_Skill.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GitHub\NewPhoenix\Document\Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView windowWidth="28695" windowHeight="13125" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Config_ActiveSkill" sheetId="1" r:id="rId1"/>
@@ -22,12 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -37,135 +27,75 @@
     <author>xu xu</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 填写类型：1000-9999正整数</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 名称
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 描述
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 图标
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 作用方
     /// &lt;summary&gt;
     /// 敌方
@@ -182,28 +112,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变的属性
 参考枚举：AttributeType
 可以为空
@@ -234,28 +152,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变值的类型
 参考枚举：RateOrValueType
 率：0
@@ -264,28 +170,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变的值
 填写类型：浮点数
 当ChangeAttribute字段为空，则该字段也应为空
@@ -293,18 +187,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -312,7 +196,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 护盾类型
     /// &lt;summary&gt;
     /// 先使用护盾再使用生命
@@ -325,83 +209,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-选择目标的方式
-    /// &lt;summary&gt;
-    /// 就近（左下）
-    /// SkillRangeType: 0,1
-    /// &lt;/summary&gt;
-    Near = 0,
-    /// &lt;summary&gt;
-    /// 最远
-    /// SkillRangeType: 0,1
-    /// &lt;/summary&gt;
-    Far = 1,
-    /// &lt;summary&gt;
-    /// 某项属性最小
-    /// SkillRangeType: 0,1
-    /// &lt;/summary&gt;
-    MinAttribute = 2,
-    /// &lt;summary&gt;
-    /// 某项属性最大
-    /// SkillRangeType: 0,1
-    /// &lt;/summary&gt;
-    MaxAttribute = 3,
-    /// &lt;summary&gt;
-    /// 最多目标
-    /// SkillRangeType: 0,1
-    /// &lt;/summary&gt;
-    Max = 4,
-    /// &lt;summary&gt;
-    /// 对面
-    /// SkillRangeType: 1
-    /// &lt;/summary&gt;
-    Opposite = 5,
-    /// &lt;summary&gt;
-    /// 随机
-    /// &lt;/summary&gt;
-    Random = 6,
-    /// &lt;summary&gt;
-    /// 根据某项属性筛选
-    /// 例如：国籍，职业等
-    /// &lt;/summary&gt;
-    Attribute = 7,</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -409,7 +218,60 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
+选择目标的方式
+    /// &lt;summary&gt;
+    /// 就近（左下）
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    Near = 0,
+    /// &lt;summary&gt;
+    /// 最远
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    Far = 1,
+    /// &lt;summary&gt;
+    /// 某项属性最小
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    MinAttribute = 2,
+    /// &lt;summary&gt;
+    /// 某项属性最大
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    MaxAttribute = 3,
+    /// &lt;summary&gt;
+    /// 最多目标
+    /// SkillRangeType: 0,1
+    /// &lt;/summary&gt;
+    Max = 4,
+    /// &lt;summary&gt;
+    /// 对面
+    /// SkillRangeType: 1
+    /// &lt;/summary&gt;
+    Opposite = 5,
+    /// &lt;summary&gt;
+    /// 随机
+    /// &lt;/summary&gt;
+    Random = 6,
+    /// &lt;summary&gt;
+    /// 根据某项属性筛选
+    /// 例如：国籍，职业等
+    /// &lt;/summary&gt;
+    Attribute = 7,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
 选择对象需要参考的属性
 参考枚举：AttributeType
     #region 1级属性
@@ -536,28 +398,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 技能范围
 参考枚举：SkillRangeType
 /// &lt;summary&gt;
@@ -575,73 +425,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-当 SkillRange为 Cross eg:1,1,2,2 (上,下,左,右)
-当 SkillRange为 Rect  eg:2,3(长,宽)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-CD回合数
-填写类型：[0,30]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -649,32 +434,15 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-改变值的类型
-参考枚举：RateOrValueType
-    /// &lt;summary&gt;
-    /// 率
-    /// &lt;/summary&gt;
-    Rate = 0,
-    /// &lt;summary&gt;
-    /// 值
-    /// &lt;/summary&gt;
-    Value = 1,</t>
+          <t xml:space="preserve">xu xu:
+当 SkillRange为 Cross eg:1,1,2,2 (上,下,左,右)
+当 SkillRange为 Rect  eg:2,3(长,宽)
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -682,25 +450,14 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-消耗率或消耗值
-消耗的东西根据英雄的职业而定
-填写类型：浮点数或整数</t>
+          <t xml:space="preserve">xu xu:
+CD回合数
+填写类型：[0,30]</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -708,7 +465,46 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
+改变值的类型
+参考枚举：RateOrValueType
+    /// &lt;summary&gt;
+    /// 率
+    /// &lt;/summary&gt;
+    Rate = 0,
+    /// &lt;summary&gt;
+    /// 值
+    /// &lt;/summary&gt;
+    Value = 1,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
+消耗率或消耗值
+消耗的东西根据英雄的职业而定
+填写类型：浮点数或整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
 触发的Buff
 填写类型：（BuffID,概率，持续回合数）
 拥有多个使用|隔开
@@ -717,18 +513,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -736,7 +522,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 伤害类型
 参考枚举：DamageType
     /// &lt;summary&gt;
@@ -750,18 +536,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -769,24 +545,14 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 波动值
 填写类型：大于0 浮点数</t>
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -794,24 +560,14 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 造成的伤害率
 填写类型：大于0浮点数</t>
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -819,7 +575,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 回复生命 = 源（RestoreHPeSource） X 率（DamageRate）
 0：表示源为施放方的攻击
 1：表示源为作用方的血量
@@ -827,110 +583,62 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 计算是是否包含空格子
 填写类型bool</t>
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 选择目标的数量
 填写类型[1,20]整数
 当作用对象为自己的时候，该字段可以为空</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 播动画次数
 填写类型正整数</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 是否移动到目标
     /// &lt;summary&gt;
     /// 站在原地
@@ -951,28 +659,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 轴点
 当MoveToTarget为DontMove时 该字段必须为空；
 否则，不能为空。
@@ -1001,135 +697,75 @@
     <author>xu xu</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 填写类型：1000-9999正整数</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 名称
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 描述
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 图标
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 作用方
     /// &lt;summary&gt;
     /// 敌方
@@ -1146,28 +782,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变的属性
 参考枚举：AttributeType
 可以为空
@@ -1198,28 +822,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变值的类型
 参考枚举：RateOrValueType
 率：0
@@ -1228,28 +840,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变的值
 填写类型：浮点数
 当ChangeAttribute字段为空，则该字段也应为空
@@ -1257,18 +857,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1276,7 +866,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 护盾类型
     /// &lt;summary&gt;
     /// 先使用护盾再使用生命
@@ -1299,135 +889,75 @@
     <author>xu xu</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 填写类型：1000-9999正整数</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 名称
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 描述
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 图标
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 作用方
     /// &lt;summary&gt;
     /// 敌方
@@ -1444,28 +974,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变的属性
 参考枚举：AttributeType
 可以为空
@@ -1496,28 +1014,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变值的类型
 参考枚举：RateOrValueType
 率：0
@@ -1526,28 +1032,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变的值
 填写类型：浮点数
 当ChangeAttribute字段为空，则该字段也应为空
@@ -1555,18 +1049,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1574,7 +1058,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 护盾类型
     /// &lt;summary&gt;
     /// 先使用护盾再使用生命
@@ -1587,18 +1071,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1606,7 +1080,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 通过属性触发
 参考枚举：TriggerType
     /// &lt;summary&gt;
@@ -1637,18 +1111,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1656,7 +1120,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 触发的值
 当TriggerType为0，则参考枚举：AttributeType
 当TriggerType为1，则参考枚举：TriggerFieldType
@@ -1666,18 +1130,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1685,7 +1139,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 触发条件
 参考枚举：TriggerConditionType
    /// &lt;summary&gt;
@@ -1708,18 +1162,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1727,25 +1171,15 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 比较的对象
 和自己比较：0
 和目标比较：1</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1753,7 +1187,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 可以为空
 /// &lt;summary&gt;
     /// 率
@@ -1766,18 +1200,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1785,25 +1209,15 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 具体的值
 填写类型：大于等于0的浮点数
 可以为空</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1811,25 +1225,15 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 触发技能
 填写类型：技能ID
 可以为空</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -1837,7 +1241,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 触发Buff
 填写类型：BuffID
 可以为空</t>
@@ -1854,135 +1258,75 @@
     <author>xu xu</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 填写类型：1000-9999正整数</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 名称
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 描述
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 图标
 填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 作用方
     /// &lt;summary&gt;
     /// 敌方
@@ -1999,28 +1343,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变的属性
 参考枚举：AttributeType
 可以为空
@@ -2051,28 +1383,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变值的类型
 参考枚举：RateOrValueType
 率：0
@@ -2081,28 +1401,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 改变的值
 填写类型：浮点数
 当ChangeAttribute字段为空，则该字段也应为空
@@ -2110,18 +1418,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -2129,7 +1427,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 护盾类型
     /// &lt;summary&gt;
     /// 先使用护盾再使用生命
@@ -2142,18 +1440,8 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -2161,7 +1449,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
 参考枚举：BuffType
     /// &lt;summary&gt;
     ///  灼烧
@@ -2284,98 +1572,8 @@
     <author>xu xu</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填写类型：1000-9999正整数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-名称
-填写类型：字符串</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-描述
-填写类型：字符串</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -2383,34 +1581,13 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-阶数
-填写类型：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[0,9]</t>
+          <t xml:space="preserve">xu xu:
+填写类型：1000-9999正整数</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -2418,24 +1595,14 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-技能类型
-参考枚举：SkillType</t>
+          <t xml:space="preserve">xu xu:
+名称
+填写类型：字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -2443,19 +1610,54 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-技能
-填写格式：技能ID</t>
+          <t xml:space="preserve">xu xu:
+描述
+填写类型：字符串</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>,技能ID
+          <t xml:space="preserve">xu xu:
+阶数
+填写类型：[0,9]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
+技能类型
+参考枚举：SkillType</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
+技能
+填写格式：技能ID,技能ID
 eg:1001,1002</t>
         </r>
       </text>
@@ -2470,125 +1672,8 @@
     <author>xu xu</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-填写类型：1000-9999正整数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-名称
-填写类型：字符串</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-描述
-填写类型：字符串</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-图标
-填写类型：字符串</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xu xu:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -2596,7 +1681,66 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">xu xu:
+填写类型：1000-9999正整数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
+名称
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
+描述
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
+图标
+填写类型：字符串</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">xu xu:
 天气类型
 参考枚举:WeatherType
     /// &lt;summary&gt;
@@ -2627,21 +1771,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>EffectTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeAttribute</t>
   </si>
   <si>
     <t>ChangeRateOrVale</t>
@@ -2650,11 +1797,22 @@
     <t>ChangeValue</t>
   </si>
   <si>
+    <t>ShieldType</t>
+  </si>
+  <si>
+    <t>SelectionTarget</t>
+  </si>
+  <si>
+    <t>SelectionTargetRefrenceAttribute</t>
+  </si>
+  <si>
     <t>SkillRange</t>
   </si>
   <si>
+    <t>RangeValue</t>
+  </si>
+  <si>
     <t>CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CostRateOrValue</t>
@@ -2663,8 +1821,10 @@
     <t>CostValue</t>
   </si>
   <si>
+    <t>TriggerBuff</t>
+  </si>
+  <si>
     <t>DamageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fluctuation</t>
@@ -2676,27 +1836,34 @@
     <t>RestoreHPeSource</t>
   </si>
   <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeAttribute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectionTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerBuff</t>
-  </si>
-  <si>
-    <t>TriggerBuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>IncludeEmpty</t>
+  </si>
+  <si>
+    <t>SelectionCount</t>
+  </si>
+  <si>
+    <t>AnimationTimes</t>
+  </si>
+  <si>
+    <t>MoveToTarget</t>
+  </si>
+  <si>
+    <t>MoveToPivot</t>
+  </si>
+  <si>
+    <t>霸王降临</t>
+  </si>
+  <si>
+    <t>对生命最低的敌方单位造成250%~300%的伤害，并晕眩1回合</t>
+  </si>
+  <si>
+    <t>TriggerType</t>
+  </si>
+  <si>
+    <t>TriggerValue</t>
   </si>
   <si>
     <t>TriggerCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CompareTarget</t>
@@ -2706,131 +1873,1560 @@
   </si>
   <si>
     <t>CompareValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TriggerSkill</t>
   </si>
   <si>
-    <t>TriggerType</t>
-  </si>
-  <si>
-    <t>TriggerValue</t>
-  </si>
-  <si>
     <t>BuffType</t>
   </si>
   <si>
-    <t>霸王降临</t>
-  </si>
-  <si>
-    <t>对生命最低的敌方单位造成250%~300%的伤害，并晕眩1回合</t>
-  </si>
-  <si>
     <t>Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
   </si>
   <si>
     <t>SkillIDs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShieldType</t>
-  </si>
-  <si>
-    <t>SelectionTargetRefrenceAttribute</t>
-  </si>
-  <si>
-    <t>RangeValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>对生命最低的敌方单位造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>250%~300%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，并晕眩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+  </si>
+  <si>
+    <t>振奋</t>
+  </si>
+  <si>
+    <t>迅捷</t>
+  </si>
+  <si>
+    <t>长沙恒王</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加吴国友方单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御</t>
+    </r>
+  </si>
+  <si>
+    <t>破釜</t>
+  </si>
+  <si>
+    <t>霸王*古锭</t>
+  </si>
+  <si>
+    <r>
+      <t>当孙策装备穿刺类武器时，系数增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>且伤害不衰减；当装备短兵时，对生命</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以下的目标伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+  </si>
+  <si>
+    <t>暴怒</t>
+  </si>
+  <si>
+    <t>普攻怒气获取翻倍</t>
+  </si>
+  <si>
+    <t>饮血</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杀死一个目标后，回复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命</t>
+    </r>
+  </si>
+  <si>
+    <t>霸王之力</t>
+  </si>
+  <si>
+    <t>强力；当力量大于对方时伤害增加30%</t>
+  </si>
+  <si>
+    <t>激昂</t>
+  </si>
+  <si>
+    <t>当自身的生命低于20%时，孙策获得【激昂】状态：攻击力增加百分之百</t>
+  </si>
+  <si>
+    <t>红莲业火</t>
+  </si>
+  <si>
+    <t>对敌方全造成X伤害，有30%几率附带【灼烧】2回合，调息3回合，消耗X法力</t>
+  </si>
+  <si>
+    <t>破魏</t>
+  </si>
+  <si>
+    <t>风流</t>
+  </si>
+  <si>
+    <t>琴音</t>
+  </si>
+  <si>
+    <t>对随机三个敌方目标造成X伤害，若其正被【灼烧】，则伤害提升X，调息3回合</t>
+  </si>
+  <si>
+    <t>先机技：天变*大风</t>
+  </si>
+  <si>
+    <r>
+      <t>大风天气下全体单位攻击力下降百分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（恶劣天气下效果翻倍）</t>
+    </r>
+  </si>
+  <si>
+    <t>都督*朱雀</t>
+  </si>
+  <si>
+    <r>
+      <t>当周瑜装备法术武器时，普通攻击附带【灼烧】效果；当装备短兵时，会召唤朱雀之力，每次释放绝技造成伤害的百分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会回复自身生命</t>
+    </r>
+  </si>
+  <si>
+    <t>吸附</t>
+  </si>
+  <si>
+    <t>每次普攻到一个被【灼烧】敌方单位时，会回复X法力值</t>
+  </si>
+  <si>
+    <t>定风</t>
+  </si>
+  <si>
+    <t>自身免疫【攻击降低】效果，免疫全队大风天气的负面影响</t>
+  </si>
+  <si>
+    <t>英姿</t>
+  </si>
+  <si>
+    <t>慧根；对智力低于自身的敌人造成伤害时，吸收X生命</t>
+  </si>
+  <si>
+    <t>风助火势</t>
+  </si>
+  <si>
+    <t>大风天气下，自身的【灼烧】效果加倍</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对敌方单体造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害，并提高自身格挡率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，调息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+  </si>
+  <si>
+    <t>神佑</t>
+  </si>
+  <si>
+    <t>茂盛</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>背水</t>
+  </si>
+  <si>
+    <r>
+      <t>神力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双戟：</t>
+    </r>
+  </si>
+  <si>
+    <t>当典韦装备粉碎武器时，防御提升X；当装备短兵器时，普通攻击有X几率再次发动一次普通攻击，造成X物理伤害</t>
+  </si>
+  <si>
+    <t>每当典韦成功格挡一次后，减少绝技1回合调息时间</t>
+  </si>
+  <si>
+    <t>金星</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金刚；当体质大于对方时，格挡时受到伤害降低3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0%</t>
+    </r>
+  </si>
+  <si>
+    <t>典韦阵亡后化身一个拥有最大血量百分之50的英灵继续战斗，持续两回合或英灵阵亡</t>
+  </si>
+  <si>
+    <t>连破</t>
+  </si>
+  <si>
+    <t>对敌方单体造成300%~380%的伤害，调息3回合，消耗X点法力</t>
+  </si>
+  <si>
+    <t>缥缈</t>
+  </si>
+  <si>
+    <t>徐林</t>
+  </si>
+  <si>
+    <t>每次被攻击回复X法力</t>
+  </si>
+  <si>
+    <r>
+      <t>先机技：天变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沙暴</t>
+    </r>
+  </si>
+  <si>
+    <t>沙暴天气下全体单位物理防御下降百分之10（恶劣天气下效果翻倍）</t>
+  </si>
+  <si>
+    <t>当司马懿装备法术类装备时，每次攻击可回复30%自身智力值的法力；当装备短兵时，每次攻击可吸取30%生命</t>
+  </si>
+  <si>
+    <t>连破击杀一个目标后，可重置调息时间</t>
+  </si>
+  <si>
+    <t>自身免疫【物理防御降低】效果，并使全队免疫沙暴天气的负面影响</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>慧根；对智力低于自身的敌人伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沙暴天气下，被司马懿命中的单位法防降低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍于天气影响的物防，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+  </si>
+  <si>
+    <t>百鸟朝凤：对直线敌人造成x伤害，并击破额外X破军盾，调息5回合</t>
+  </si>
+  <si>
+    <t>利刃</t>
+  </si>
+  <si>
+    <t>倜傥</t>
+  </si>
+  <si>
+    <t>七探蛇盘：对直线敌人造成X伤害，30%几率再次释放，5回合调息</t>
+  </si>
+  <si>
+    <t>穿云*青釭</t>
+  </si>
+  <si>
+    <r>
+      <t>当赵云装备穿刺类武器时，可额外增加一个目标；当装备短兵器时，普通攻击可为目标附加一个【破甲】状态，持续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+  </si>
+  <si>
+    <t>赵云每杀死一个目标时，减少一回合绝技调息和并重置七探蛇盘</t>
+  </si>
+  <si>
+    <t>灵动；对速度低于自身的敌人暴击伤害增加50%</t>
+  </si>
+  <si>
+    <t>当本队人数少于2人（含2人）时，赵云的伤害提升X</t>
+  </si>
+  <si>
+    <t>空城计</t>
+  </si>
+  <si>
+    <t>对敌方全体造成X伤害，并【提升全队友方闪避】X，持续1回合，调息时间5回合，消耗X法力</t>
+  </si>
+  <si>
+    <t>钢筋</t>
+  </si>
+  <si>
+    <t>七星灯</t>
+  </si>
+  <si>
+    <t>友方闪避一次攻击时，对其施加祝福效果，提升其X攻击，持续一回合</t>
+  </si>
+  <si>
+    <t>先机技：天变*雾霾</t>
+  </si>
+  <si>
+    <r>
+      <t>雾霾天气下全体单位命中率下降百分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（恶劣天气下效果翻倍）</t>
+    </r>
+  </si>
+  <si>
+    <t>装备法术类武器时，伤害增加百分之30</t>
+  </si>
+  <si>
+    <t>每次闪避敌人攻击时，回复X法力，并减少绝技1回合调息时间</t>
+  </si>
+  <si>
+    <t>自身免疫【命中降低】效果，并使全队免疫雾霾天气的负面影响</t>
+  </si>
+  <si>
+    <t>慧根，对智力低于自身的敌人【一定命中】</t>
+  </si>
+  <si>
+    <t>大雾天气下，自身回合开始前，随机对敌方一个单位附加【致盲】，持续1回合</t>
+  </si>
+  <si>
+    <t>对敌方全体造成X伤害，并30%附加【恫吓】状态两回合，【恫吓】状态下的目标攻防速都减少5%，调息时间5回合</t>
+  </si>
+  <si>
+    <t>不动</t>
+  </si>
+  <si>
+    <t>斩破</t>
+  </si>
+  <si>
+    <t>当吕布装备横扫类装备时，攻击系数降低0.2，攻击将会波及到其身后的所有目标；当装备远射类装备时，命中率提高百分之百</t>
+  </si>
+  <si>
+    <t>荡平</t>
+  </si>
+  <si>
+    <t>若此次攻击无人格挡则减少一回合绝技调息时间</t>
+  </si>
+  <si>
+    <t>普通攻击造成伤害的百分之20变为破军盾，抵挡即将到来的伤害</t>
+  </si>
+  <si>
+    <t>强力；当力量大于对方时，破挡率增加100%</t>
+  </si>
+  <si>
+    <t>修罗地狱</t>
+  </si>
+  <si>
+    <t>攻击增加百分之20，免疫一切来自其他人的状态（包括治疗）</t>
+  </si>
+  <si>
+    <t>对敌方前排全部目标造成X伤害，并附加【封技】状态两回合，调息3回合，消耗X法力</t>
+  </si>
+  <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>疾风</t>
+  </si>
+  <si>
+    <t>幻化：对随机3个目标造成X伤害</t>
+  </si>
+  <si>
+    <t>屠狼</t>
+  </si>
+  <si>
+    <t>装备法术类武器时，普通攻击30几率附加【混乱】</t>
+  </si>
+  <si>
+    <t>每回合回复X法力值</t>
+  </si>
+  <si>
+    <t>水星</t>
+  </si>
+  <si>
+    <t>灵动；百分之20的敏捷值转化为智力</t>
+  </si>
+  <si>
+    <t>幻化和绝技对贪狼减少X法力，对七杀减少X怒气，对破军额外击破X破军盾</t>
+  </si>
+  <si>
+    <t>对单体目标造成X伤害，额外击破X破军盾，并提升X格挡率</t>
+  </si>
+  <si>
+    <t>甲胄</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陷阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绝杀：当甘宁装备短兵器时，增加自身</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生命上限，当装备远射类武器时，普通攻击对生命</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以下的敌人增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+  </si>
+  <si>
+    <t>反击时获得X怒气</t>
+  </si>
+  <si>
+    <t>狼嗥</t>
+  </si>
+  <si>
+    <t>复仇：当队友被暴击时，甘宁将对攻击者造成X伤害，限发动10次</t>
+  </si>
+  <si>
+    <t>火烧联营：对敌方直线造成X伤害，并附加【灼烧】2回合，3回合调息，消耗X法力</t>
+  </si>
+  <si>
+    <t>勘察</t>
+  </si>
+  <si>
+    <t>破蜀</t>
+  </si>
+  <si>
+    <t>对单体敌人造成X伤害，若该敌人被【灼烧】，则附加【晕眩】1回合，调息3回合，消耗X法力</t>
+  </si>
+  <si>
+    <t>飘渺</t>
+  </si>
+  <si>
+    <t>都督*白虎</t>
+  </si>
+  <si>
+    <r>
+      <t>当陆逊装备法术武器时，普攻伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；当装备短兵时，会召唤白虎之力，增加全队攻击力</t>
+    </r>
+  </si>
+  <si>
+    <t>普通攻击的5%的伤害会转化为法力</t>
+  </si>
+  <si>
+    <t>审时度势</t>
+  </si>
+  <si>
+    <t>速度高于陆逊的敌人对其伤害减少X；陆逊对速度低于他的敌人伤害增加X</t>
+  </si>
+  <si>
+    <t>慧根；免疫【灼烧】</t>
+  </si>
+  <si>
+    <t>陆逊在场时，被火烧死的单位会对周围单位造成X伤害</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对随机三个单位造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并提升自身闪避</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合调息</t>
+    </r>
+  </si>
+  <si>
+    <t>破击：对单体造成X伤害3回合调息时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都督</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青龙：当吕蒙装备法术类武器时，破击的调息时间缩短</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合；当装备短兵时，会召唤青龙之力，每次释放绝技后，增加自身百分之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击，直到回合结束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破击有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率减少绝技的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合调息时间</t>
+    </r>
+  </si>
+  <si>
+    <t>每次闪避后，可增加自身最大生命百分之十的破军护盾，破军护盾在吕蒙濒死时用于吸收伤害</t>
+  </si>
+  <si>
+    <t>对随机三个单位造成X伤害，有X几率再次发动，造成一半伤害</t>
+  </si>
+  <si>
+    <t>龙啸</t>
+  </si>
+  <si>
+    <t>普通攻击和绝技50%触发【缴械】</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>神射</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手戟：当太史慈装备远射类武器时，攻击系数减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，普攻额外增加两个目标；当装备短兵时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>几率触发连击</t>
+    </r>
+  </si>
+  <si>
+    <t>每次发动连击时，增加X怒气</t>
   </si>
   <si>
     <t>Weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IncludeEmpty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelectionCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimationTimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveToTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveToPivot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2838,58 +3434,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2936,7 +3811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2971,7 +3846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3146,50 +4021,45 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="55.375" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="36.125" customWidth="1"/>
+    <col min="12" max="13" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="18.375" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="23" max="24" width="16.125" customWidth="1"/>
+    <col min="25" max="25" width="13.875" customWidth="1"/>
+    <col min="26" max="26" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3200,84 +4070,84 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
       <c r="T1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>10010</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3305,96 +4175,96 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="16">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SkillRangeType里的值" sqref="L2:L1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SelectionTargetType里的值" sqref="J2:J1048576">
+      <formula1>0</formula1>
+      <formula2>9</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576 K2:K1048576">
+      <formula1>0</formula1>
+      <formula2>27</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="K1"/>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E2:E1048576 Y$1:Y$1048576 Z2:Z1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵呵呵呵" error="只能填bool值，&#10;false:0&#10;true:1" sqref="V1 V2:V1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>10000</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576 K2:K1048576">
-      <formula1>0</formula1>
-      <formula2>27</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="O2:O1048576 G2:G1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G2:G1048576 O2:O1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SelectionTargetType里的值" sqref="J2:J1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
       <formula1>0</formula1>
-      <formula2>9</formula2>
+      <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填SkillRangeType里的值" sqref="L2:L1048576">
-      <formula1>0</formula1>
-      <formula2>2</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,30]整数" sqref="N2:N1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,30]整数" sqref="N2:N1048576">
       <formula1>0</formula1>
       <formula2>30</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填DamageType里的值" sqref="R2:R1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填DamageType里的值" sqref="R2:R1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于等于0的浮点数_x000a_" sqref="S2:S1048576">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于等于0的浮点数&#10;" sqref="S2:S1048576">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填大于0的浮点数" sqref="T2:T1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填0或1" sqref="U2:U1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵呵呵" error="填写类型整数[1,20]" sqref="W$1:W$1048576">
+      <formula1>1</formula1>
+      <formula2>20</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填0或1" sqref="U2:U1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I2:I1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="K1"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵呵呵呵" error="只能填bool值，_x000a_false:0_x000a_true:1" sqref="V1:V1048576 V1">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E2:E1048576 Y1:Y1048576 Z2:Z1048576">
-      <formula1>0</formula1>
-      <formula2>2</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵呵呵" error="填写类型整数[1,20]" sqref="W1:W1048576">
-      <formula1>1</formula1>
-      <formula2>20</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写正整数" sqref="X1:X1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写正整数" sqref="X$1:X$1048576">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3405,82 +4275,80 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E$1:E$1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
+      <formula1>0</formula1>
+      <formula2>27</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G$1:G$1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
-      <formula1>0</formula1>
-      <formula2>27</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
-      <formula1>1000</formula1>
-      <formula2>9999</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I1:I1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I$1:I$1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E1:E1048576">
-      <formula1>0</formula1>
-      <formula2>2</formula2>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="19.375" customWidth="1"/>
+    <col min="15" max="16" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3491,74 +4359,84 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="11">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值&#10;" sqref="M2:M1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E$1:E$1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerConditionType里的值" sqref="L2:L1048576">
+      <formula1>0</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
       <formula1>0</formula1>
       <formula2>27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="N2:N1048576 G1:G1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G$1:G$1048576 N2:N1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerType里的值" sqref="J2:J1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I$1:I$1048576">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerType里的值" sqref="J2:J1048576">
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填TriggerConditionType里的值" sqref="L2:L1048576">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="根据具体枚举填值" sqref="K2:K1048576">
       <formula1>0</formula1>
-      <formula2>3</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填ActorType里的值_x000a_" sqref="M2:M1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填技能ID" sqref="P2:P1048576">
       <formula1>0</formula1>
@@ -3566,46 +4444,36 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffID" sqref="Q2:Q1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="根据具体枚举填值" sqref="K2:K1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I1:I1048576">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E1:E1048576">
-      <formula1>0</formula1>
-      <formula2>2</formula2>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3616,137 +4484,3460 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffType里的值" sqref="J2:J1048576">
+      <formula1>0</formula1>
+      <formula2>26</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E$1:E$1048576">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填AttributeType里的值" sqref="F2:F1048576">
       <formula1>0</formula1>
       <formula2>27</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G1:G1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填RateOrValueType里的值" sqref="G$1:G$1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填BuffType里的值" sqref="J2:J1048576">
-      <formula1>0</formula1>
-      <formula2>26</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I1:I1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填 0，1" sqref="I$1:I$1048576">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,2]" sqref="E1:E1048576">
-      <formula1>0</formula1>
-      <formula2>2</formula2>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="48" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5" spans="1:4">
+      <c r="A2">
+        <v>1010</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>RIGHT(A2,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1011</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D11" si="0">RIGHT(A3,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1012</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5">
+        <v>1013</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1014</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:4">
+      <c r="A7">
+        <v>1015</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1016</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9">
+        <v>1017</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1018</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="27.75" spans="1:4">
+      <c r="A11">
+        <v>1019</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:7">
+      <c r="A12">
+        <v>1020</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f t="shared" ref="D12:D75" si="1">RIGHT(A12,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1021</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1022</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:4">
+      <c r="A15">
+        <v>1023</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="27.75" spans="1:4">
+      <c r="A16">
+        <v>1024</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="41.25" spans="1:4">
+      <c r="A17">
+        <v>1025</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1026</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:4">
+      <c r="A19">
+        <v>1027</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1028</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1029</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" ht="28.5" spans="1:4">
+      <c r="A22">
+        <v>1030</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1031</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1032</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1033</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1034</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:4">
+      <c r="A27">
+        <v>1035</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:4">
+      <c r="A28">
+        <v>1036</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1037</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:4">
+      <c r="A30">
+        <v>1038</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="27.75" spans="1:4">
+      <c r="A31">
+        <v>1039</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:5">
+      <c r="A32">
+        <v>1040</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1041</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1042</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1043</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:4">
+      <c r="A36">
+        <v>1044</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="28.5" spans="1:4">
+      <c r="A37">
+        <v>1045</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1046</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:4">
+      <c r="A39">
+        <v>1047</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:4">
+      <c r="A40">
+        <v>1048</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" ht="28.5" spans="1:4">
+      <c r="A41">
+        <v>1049</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:4">
+      <c r="A42">
+        <v>1050</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>1051</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>1052</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="1:4">
+      <c r="A45">
+        <v>1053</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1054</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" ht="41.25" spans="1:4">
+      <c r="A47">
+        <v>1055</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:4">
+      <c r="A48">
+        <v>1056</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1057</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>1058</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1059</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:4">
+      <c r="A52">
+        <v>1060</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>1061</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>1062</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:4">
+      <c r="A55">
+        <v>1063</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" ht="27.75" spans="1:4">
+      <c r="A56">
+        <v>1064</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>1065</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" ht="27" spans="1:4">
+      <c r="A58">
+        <v>1066</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:4">
+      <c r="A59">
+        <v>1067</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>1068</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:4">
+      <c r="A61">
+        <v>1069</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" ht="27" spans="1:4">
+      <c r="A62">
+        <v>1070</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>1071</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>1072</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>1073</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1074</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" ht="41.25" spans="1:4">
+      <c r="A67">
+        <v>1075</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>1076</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="1:4">
+      <c r="A69">
+        <v>1077</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>1078</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:4">
+      <c r="A71">
+        <v>1079</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" ht="27" spans="1:4">
+      <c r="A72">
+        <v>1080</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>1081</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>1082</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>1083</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>1084</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="4" t="str">
+        <f t="shared" ref="D76:D139" si="2">RIGHT(A76,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>1085</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>1086</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>1087</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>1088</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" ht="27" spans="1:4">
+      <c r="A81">
+        <v>1089</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="1:4">
+      <c r="A82">
+        <v>1090</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>1091</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>1092</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>1093</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>1094</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" ht="42" spans="1:4">
+      <c r="A87">
+        <v>1095</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>1096</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>1097</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>1098</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" ht="27" spans="1:4">
+      <c r="A91">
+        <v>1099</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" ht="27" spans="1:4">
+      <c r="A92">
+        <v>1100</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>1101</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>1102</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="1:4">
+      <c r="A95">
+        <v>1103</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>1104</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" ht="27.75" spans="1:4">
+      <c r="A97">
+        <v>1105</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D97" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1106</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="1:4">
+      <c r="A99">
+        <v>1107</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>1108</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1109</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D101" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" ht="28.5" spans="1:4">
+      <c r="A102">
+        <v>1110</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>1111</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>1112</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>1113</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>1114</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" ht="42.75" spans="1:4">
+      <c r="A107">
+        <v>1115</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D107" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" spans="1:4">
+      <c r="A108">
+        <v>1116</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D108" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1117</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1118</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" ht="27" spans="1:4">
+      <c r="A111">
+        <v>1119</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" ht="54" spans="1:14">
+      <c r="A112">
+        <v>1120</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>1121</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1122</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>1123</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>1124</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" ht="42" spans="1:4">
+      <c r="A117">
+        <v>1125</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>1126</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>1127</v>
+      </c>
+      <c r="D119" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>1128</v>
+      </c>
+      <c r="D120" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>1129</v>
+      </c>
+      <c r="D121" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>1130</v>
+      </c>
+      <c r="D122" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>1131</v>
+      </c>
+      <c r="D123" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>1132</v>
+      </c>
+      <c r="D124" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>1133</v>
+      </c>
+      <c r="D125" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>1134</v>
+      </c>
+      <c r="D126" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>1135</v>
+      </c>
+      <c r="D127" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>1136</v>
+      </c>
+      <c r="D128" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>1137</v>
+      </c>
+      <c r="D129" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>1138</v>
+      </c>
+      <c r="D130" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>1139</v>
+      </c>
+      <c r="D131" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>1140</v>
+      </c>
+      <c r="D132" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>1141</v>
+      </c>
+      <c r="D133" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>1142</v>
+      </c>
+      <c r="D134" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>1143</v>
+      </c>
+      <c r="D135" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>1144</v>
+      </c>
+      <c r="D136" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>1145</v>
+      </c>
+      <c r="D137" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>1146</v>
+      </c>
+      <c r="D138" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>1147</v>
+      </c>
+      <c r="D139" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>1148</v>
+      </c>
+      <c r="D140" s="4" t="str">
+        <f t="shared" ref="D140:D203" si="3">RIGHT(A140,1)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>1149</v>
+      </c>
+      <c r="D141" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>1150</v>
+      </c>
+      <c r="D142" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>1151</v>
+      </c>
+      <c r="D143" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>1152</v>
+      </c>
+      <c r="D144" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>1153</v>
+      </c>
+      <c r="D145" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>1154</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>1155</v>
+      </c>
+      <c r="D147" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>1156</v>
+      </c>
+      <c r="D148" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>1157</v>
+      </c>
+      <c r="D149" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>1158</v>
+      </c>
+      <c r="D150" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>1159</v>
+      </c>
+      <c r="D151" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>1160</v>
+      </c>
+      <c r="D152" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>1161</v>
+      </c>
+      <c r="D153" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>1162</v>
+      </c>
+      <c r="D154" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>1163</v>
+      </c>
+      <c r="D155" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>1164</v>
+      </c>
+      <c r="D156" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>1165</v>
+      </c>
+      <c r="D157" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>1166</v>
+      </c>
+      <c r="D158" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>1167</v>
+      </c>
+      <c r="D159" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>1168</v>
+      </c>
+      <c r="D160" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>1169</v>
+      </c>
+      <c r="D161" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>1170</v>
+      </c>
+      <c r="D162" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>1171</v>
+      </c>
+      <c r="D163" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>1172</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>1173</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>1174</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>1175</v>
+      </c>
+      <c r="D167" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>1176</v>
+      </c>
+      <c r="D168" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>1177</v>
+      </c>
+      <c r="D169" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>1178</v>
+      </c>
+      <c r="D170" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>1179</v>
+      </c>
+      <c r="D171" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>1180</v>
+      </c>
+      <c r="D172" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>1181</v>
+      </c>
+      <c r="D173" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>1182</v>
+      </c>
+      <c r="D174" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>1183</v>
+      </c>
+      <c r="D175" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>1184</v>
+      </c>
+      <c r="D176" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>1185</v>
+      </c>
+      <c r="D177" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>1186</v>
+      </c>
+      <c r="D178" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>1187</v>
+      </c>
+      <c r="D179" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>1188</v>
+      </c>
+      <c r="D180" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>1189</v>
+      </c>
+      <c r="D181" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>1190</v>
+      </c>
+      <c r="D182" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>1191</v>
+      </c>
+      <c r="D183" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>1192</v>
+      </c>
+      <c r="D184" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>1193</v>
+      </c>
+      <c r="D185" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>1194</v>
+      </c>
+      <c r="D186" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>1195</v>
+      </c>
+      <c r="D187" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188">
+        <v>1196</v>
+      </c>
+      <c r="D188" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189">
+        <v>1197</v>
+      </c>
+      <c r="D189" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190">
+        <v>1198</v>
+      </c>
+      <c r="D190" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191">
+        <v>1199</v>
+      </c>
+      <c r="D191" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192">
+        <v>1200</v>
+      </c>
+      <c r="D192" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193">
+        <v>1201</v>
+      </c>
+      <c r="D193" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194">
+        <v>1202</v>
+      </c>
+      <c r="D194" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195">
+        <v>1203</v>
+      </c>
+      <c r="D195" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196">
+        <v>1204</v>
+      </c>
+      <c r="D196" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197">
+        <v>1205</v>
+      </c>
+      <c r="D197" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198">
+        <v>1206</v>
+      </c>
+      <c r="D198" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199">
+        <v>1207</v>
+      </c>
+      <c r="D199" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200">
+        <v>1208</v>
+      </c>
+      <c r="D200" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201">
+        <v>1209</v>
+      </c>
+      <c r="D201" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202">
+        <v>1210</v>
+      </c>
+      <c r="D202" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>1211</v>
+      </c>
+      <c r="D203" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <v>1212</v>
+      </c>
+      <c r="D204" s="4" t="str">
+        <f t="shared" ref="D204:D267" si="4">RIGHT(A204,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <v>1213</v>
+      </c>
+      <c r="D205" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <v>1214</v>
+      </c>
+      <c r="D206" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <v>1215</v>
+      </c>
+      <c r="D207" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208">
+        <v>1216</v>
+      </c>
+      <c r="D208" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209">
+        <v>1217</v>
+      </c>
+      <c r="D209" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210">
+        <v>1218</v>
+      </c>
+      <c r="D210" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211">
+        <v>1219</v>
+      </c>
+      <c r="D211" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212">
+        <v>1220</v>
+      </c>
+      <c r="D212" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213">
+        <v>1221</v>
+      </c>
+      <c r="D213" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214">
+        <v>1222</v>
+      </c>
+      <c r="D214" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215">
+        <v>1223</v>
+      </c>
+      <c r="D215" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216">
+        <v>1224</v>
+      </c>
+      <c r="D216" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217">
+        <v>1225</v>
+      </c>
+      <c r="D217" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218">
+        <v>1226</v>
+      </c>
+      <c r="D218" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219">
+        <v>1227</v>
+      </c>
+      <c r="D219" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220">
+        <v>1228</v>
+      </c>
+      <c r="D220" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221">
+        <v>1229</v>
+      </c>
+      <c r="D221" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222">
+        <v>1230</v>
+      </c>
+      <c r="D222" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223">
+        <v>1231</v>
+      </c>
+      <c r="D223" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224">
+        <v>1232</v>
+      </c>
+      <c r="D224" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225">
+        <v>1233</v>
+      </c>
+      <c r="D225" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226">
+        <v>1234</v>
+      </c>
+      <c r="D226" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227">
+        <v>1235</v>
+      </c>
+      <c r="D227" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228">
+        <v>1236</v>
+      </c>
+      <c r="D228" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229">
+        <v>1237</v>
+      </c>
+      <c r="D229" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230">
+        <v>1238</v>
+      </c>
+      <c r="D230" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231">
+        <v>1239</v>
+      </c>
+      <c r="D231" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232">
+        <v>1240</v>
+      </c>
+      <c r="D232" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233">
+        <v>1241</v>
+      </c>
+      <c r="D233" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234">
+        <v>1242</v>
+      </c>
+      <c r="D234" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235">
+        <v>1243</v>
+      </c>
+      <c r="D235" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236">
+        <v>1244</v>
+      </c>
+      <c r="D236" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237">
+        <v>1245</v>
+      </c>
+      <c r="D237" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238">
+        <v>1246</v>
+      </c>
+      <c r="D238" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239">
+        <v>1247</v>
+      </c>
+      <c r="D239" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240">
+        <v>1248</v>
+      </c>
+      <c r="D240" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241">
+        <v>1249</v>
+      </c>
+      <c r="D241" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242">
+        <v>1250</v>
+      </c>
+      <c r="D242" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243">
+        <v>1251</v>
+      </c>
+      <c r="D243" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244">
+        <v>1252</v>
+      </c>
+      <c r="D244" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245">
+        <v>1253</v>
+      </c>
+      <c r="D245" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246">
+        <v>1254</v>
+      </c>
+      <c r="D246" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>1255</v>
+      </c>
+      <c r="D247" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>1256</v>
+      </c>
+      <c r="D248" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>1257</v>
+      </c>
+      <c r="D249" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>1258</v>
+      </c>
+      <c r="D250" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>1259</v>
+      </c>
+      <c r="D251" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>1260</v>
+      </c>
+      <c r="D252" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>1261</v>
+      </c>
+      <c r="D253" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>1262</v>
+      </c>
+      <c r="D254" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>1263</v>
+      </c>
+      <c r="D255" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>1264</v>
+      </c>
+      <c r="D256" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>1265</v>
+      </c>
+      <c r="D257" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>1266</v>
+      </c>
+      <c r="D258" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>1267</v>
+      </c>
+      <c r="D259" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>1268</v>
+      </c>
+      <c r="D260" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>1269</v>
+      </c>
+      <c r="D261" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>1270</v>
+      </c>
+      <c r="D262" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>1271</v>
+      </c>
+      <c r="D263" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>1272</v>
+      </c>
+      <c r="D264" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>1273</v>
+      </c>
+      <c r="D265" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>1274</v>
+      </c>
+      <c r="D266" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>1275</v>
+      </c>
+      <c r="D267" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>1276</v>
+      </c>
+      <c r="D268" s="4" t="str">
+        <f t="shared" ref="D268:D321" si="5">RIGHT(A268,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>1277</v>
+      </c>
+      <c r="D269" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>1278</v>
+      </c>
+      <c r="D270" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>1279</v>
+      </c>
+      <c r="D271" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>1280</v>
+      </c>
+      <c r="D272" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>1281</v>
+      </c>
+      <c r="D273" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>1282</v>
+      </c>
+      <c r="D274" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>1283</v>
+      </c>
+      <c r="D275" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>1284</v>
+      </c>
+      <c r="D276" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>1285</v>
+      </c>
+      <c r="D277" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>1286</v>
+      </c>
+      <c r="D278" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>1287</v>
+      </c>
+      <c r="D279" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>1288</v>
+      </c>
+      <c r="D280" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>1289</v>
+      </c>
+      <c r="D281" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>1290</v>
+      </c>
+      <c r="D282" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>1291</v>
+      </c>
+      <c r="D283" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>1292</v>
+      </c>
+      <c r="D284" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>1293</v>
+      </c>
+      <c r="D285" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>1294</v>
+      </c>
+      <c r="D286" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>1295</v>
+      </c>
+      <c r="D287" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>1296</v>
+      </c>
+      <c r="D288" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>1297</v>
+      </c>
+      <c r="D289" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>1298</v>
+      </c>
+      <c r="D290" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>1299</v>
+      </c>
+      <c r="D291" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>1300</v>
+      </c>
+      <c r="D292" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>1301</v>
+      </c>
+      <c r="D293" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>1302</v>
+      </c>
+      <c r="D294" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>1303</v>
+      </c>
+      <c r="D295" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>1304</v>
+      </c>
+      <c r="D296" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>1305</v>
+      </c>
+      <c r="D297" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>1306</v>
+      </c>
+      <c r="D298" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>1307</v>
+      </c>
+      <c r="D299" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>1308</v>
+      </c>
+      <c r="D300" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>1309</v>
+      </c>
+      <c r="D301" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>1310</v>
+      </c>
+      <c r="D302" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>1311</v>
+      </c>
+      <c r="D303" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>1312</v>
+      </c>
+      <c r="D304" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>1313</v>
+      </c>
+      <c r="D305" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>1314</v>
+      </c>
+      <c r="D306" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>1315</v>
+      </c>
+      <c r="D307" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>1316</v>
+      </c>
+      <c r="D308" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>1317</v>
+      </c>
+      <c r="D309" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>1318</v>
+      </c>
+      <c r="D310" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>1319</v>
+      </c>
+      <c r="D311" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>1320</v>
+      </c>
+      <c r="D312" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>1321</v>
+      </c>
+      <c r="D313" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>1322</v>
+      </c>
+      <c r="D314" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>1323</v>
+      </c>
+      <c r="D315" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>1324</v>
+      </c>
+      <c r="D316" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>1325</v>
+      </c>
+      <c r="D317" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>1326</v>
+      </c>
+      <c r="D318" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>1327</v>
+      </c>
+      <c r="D319" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>1328</v>
+      </c>
+      <c r="D320" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>1329</v>
+      </c>
+      <c r="D321" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,10]整数" sqref="D2:D1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="参考枚举 SkillType " sqref="E1 E3:E11 E13:E20 E22:E31 E33:E41 E43:E51 E53:E61 E63:E71 E73:E81 E83:E91 E93:E101 E103:E111 E113:E1048576">
+      <formula1>0</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A321 A322:A1048576">
+      <formula1>1000</formula1>
+      <formula2>9999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填[0,10]整数" sqref="D322:D1048576">
       <formula1>0</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
-      <formula1>1000</formula1>
-      <formula2>9999</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="参考枚举 SkillType " sqref="E1:E1048576 E1">
-      <formula1>0</formula1>
-      <formula2>5</formula2>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3757,26 +7948,26 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="E2:E1048576">
+      <formula1>0</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填正整数" sqref="A2:A1048576">
       <formula1>1000</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="E2:E1048576">
-      <formula1>0</formula1>
-      <formula2>4</formula2>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="呵呵" error="只能填写[0,4]" sqref="E1"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>